--- a/results/results_formatted/evaluation_freeRoaming_run3_formatted.xlsx
+++ b/results/results_formatted/evaluation_freeRoaming_run3_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\results (free roaming)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (free roaming)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C7FCC-0C8E-45EE-A45D-A74108DA2E68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_freeRoaming_run3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,30 +948,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -961,7 +1012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1044,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1076,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1117,7 @@
         <v>82.18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1158,7 @@
         <v>52.52</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1148,7 +1199,7 @@
         <v>54.68</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1240,7 @@
         <v>60.12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1272,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1313,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1354,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1385,7 +1436,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1468,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1509,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1550,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1540,7 +1591,7 @@
         <v>72.56</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +1632,7 @@
         <v>42.02</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +1673,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1705,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1746,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1736,7 +1787,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1819,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1860,7 @@
         <v>64.48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1850,7 +1901,7 @@
         <v>44.74</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1933,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1964,7 +2015,7 @@
         <v>77.489999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2047,7 @@
         <v>25.05</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +2088,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2078,7 +2129,7 @@
         <v>77.09</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2119,7 +2170,7 @@
         <v>37.71</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +2211,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2243,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2284,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2274,7 +2325,7 @@
         <v>49.14</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2357,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -2347,7 +2398,7 @@
         <v>72.430000000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -2388,7 +2439,7 @@
         <v>44.76</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2471,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -2461,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -2502,7 +2553,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -2543,7 +2594,7 @@
         <v>49.35</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -2584,7 +2635,7 @@
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -2625,7 +2676,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -2666,7 +2717,7 @@
         <v>57.46</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -2707,7 +2758,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +2790,7 @@
         <v>25.55</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -2780,7 +2831,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -2821,7 +2872,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -2862,7 +2913,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -2903,7 +2954,7 @@
         <v>69.55</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -2985,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +3077,7 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3118,7 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3150,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3131,7 +3182,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3214,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3246,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3227,7 +3278,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -3268,7 +3319,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -3309,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -3350,7 +3401,7 @@
         <v>65.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -3391,7 +3442,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -3432,7 +3483,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -3473,7 +3524,7 @@
         <v>83.58</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -3514,7 +3565,7 @@
         <v>82.37</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -3555,7 +3606,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3638,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -3628,7 +3679,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -3669,7 +3720,7 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3752,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3763,7 @@
         <v>189.44</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3774,7 @@
         <v>183.64</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -3734,7 +3785,7 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -3745,7 +3796,7 @@
         <v>224.67</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -3756,7 +3807,7 @@
         <v>132.77000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -3767,7 +3818,7 @@
         <v>184.19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -3778,7 +3829,7 @@
         <v>141.43</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -3787,6 +3838,54 @@
       </c>
       <c r="C80">
         <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="3">
+        <f>COUNTIF(A2:A72,"transportation")</f>
+        <v>52</v>
+      </c>
+      <c r="G84" s="3">
+        <f>AVERAGEIF(A2:A72,"transportation",F2:F72)</f>
+        <v>140.29961538461541</v>
+      </c>
+      <c r="H84" s="3">
+        <f>AVERAGEIF(A2:A72,"transportation",H2:H72)</f>
+        <v>73.742692307692295</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="3">
+        <f>COUNTIF(A2:A72,"charging")</f>
+        <v>19</v>
+      </c>
+      <c r="G85" s="3">
+        <f>AVERAGEIF(A2:A72,"charging",F2:F72)</f>
+        <v>42.841052631578947</v>
+      </c>
+      <c r="H85" s="3">
+        <f>AVERAGEIF(A2:A72,"charging",H2:H72)</f>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
